--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="26295" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="任务表" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -170,40 +170,22 @@
     <t>无</t>
   </si>
   <si>
-    <t>停止测试</t>
-  </si>
-  <si>
-    <t>休眠测试</t>
+    <t>启动测试</t>
+  </si>
+  <si>
+    <t>CAMERA老化</t>
+  </si>
+  <si>
+    <t>休眠</t>
+  </si>
+  <si>
+    <t>02201S000016</t>
+  </si>
+  <si>
+    <t>GPU测试</t>
   </si>
   <si>
     <t>工作</t>
-  </si>
-  <si>
-    <t>TR4 #19</t>
-  </si>
-  <si>
-    <t>ACE1Pro202402020023</t>
-  </si>
-  <si>
-    <t>GPU测试</t>
-  </si>
-  <si>
-    <t>休眠</t>
-  </si>
-  <si>
-    <t>TR4 #20</t>
-  </si>
-  <si>
-    <t>ACE1Pro202402020031</t>
-  </si>
-  <si>
-    <t>启动测试</t>
-  </si>
-  <si>
-    <t>TR4 #21</t>
-  </si>
-  <si>
-    <t>ACE1Pro202402020033</t>
   </si>
   <si>
     <t>编号</t>
@@ -298,6 +280,9 @@
     <t>重启+相机</t>
   </si>
   <si>
+    <t>休眠测试</t>
+  </si>
+  <si>
     <t>蓝牙开关测试</t>
   </si>
   <si>
@@ -307,13 +292,10 @@
     <t>com.elink.autotest.activity.RuntimeTest6Camera,com.emdoor.pressure.tester.activity.RuntimeTest6Camera</t>
   </si>
   <si>
-    <t>CAMERA老化</t>
-  </si>
-  <si>
     <t>30min(修改为7天*24H=168H)</t>
   </si>
   <si>
-    <t>com.elink.autotest.activity.ElinkCamera3Activity,com.emdoor.pressure.tester.EmdoorCameraSwitchActivity</t>
+    <t>com.elink.autotest.activity.ElinkCamera3Activity,com.emdoor.pressure.tester.EmdoorCameraSwitchActivity,com.elink.autotest.activity.ElinkCamera3Activity</t>
   </si>
   <si>
     <t>频繁相机切换</t>
@@ -491,6 +473,9 @@
   </si>
   <si>
     <t>24H</t>
+  </si>
+  <si>
+    <t>停止测试</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1328,16 +1313,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1666,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1699,7 +1678,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="28"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" s="13" customFormat="1" ht="26" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -1729,7 +1708,7 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" s="13" customFormat="1" ht="28" customHeight="1" spans="1:10">
       <c r="A3" s="20" t="s">
@@ -1754,10 +1733,10 @@
       <c r="H3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" s="13" customFormat="1" ht="26" customHeight="1" spans="1:10">
       <c r="A4" s="19" t="s">
@@ -1773,7 +1752,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="30"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
@@ -1830,17 +1809,17 @@
       <c r="I6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:10">
-      <c r="A7" s="25">
-        <v>2</v>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24">
+        <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24">
@@ -1853,79 +1832,17 @@
         <v>32</v>
       </c>
       <c r="H7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="1"/>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1942,19 +1859,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
       <formula1>软件链接!$F$2:$F$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7">
       <formula1>下拉框数据!$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7">
       <formula1>下拉框数据!$E$1:$E$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7">
       <formula1>下拉框数据!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7">
       <formula1>测试用例!$C$2:$C$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7">
       <formula1>下拉框数据!$G$1:$G$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1989,22 +1906,22 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:6">
@@ -2012,17 +1929,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:6">
@@ -2030,16 +1947,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>19</v>
@@ -2050,19 +1967,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
@@ -2154,8 +2071,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -2170,16 +2087,16 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:4">
@@ -2187,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:4">
@@ -2201,13 +2118,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:4">
@@ -2215,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:4">
@@ -2229,13 +2146,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:4">
@@ -2243,13 +2160,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:4">
@@ -2257,13 +2174,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:4">
@@ -2271,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:4">
@@ -2285,13 +2202,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:4">
@@ -2299,13 +2216,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:4">
@@ -2313,13 +2230,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:4">
@@ -2327,13 +2244,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:4">
@@ -2341,13 +2258,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:4">
@@ -2355,13 +2272,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:4">
@@ -2369,13 +2286,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:4">
@@ -2383,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:4">
@@ -2397,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:4">
@@ -2411,13 +2328,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:4">
@@ -2425,13 +2342,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:4">
@@ -2439,13 +2356,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:4">
@@ -2453,13 +2370,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:4">
@@ -2467,13 +2384,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:4">
@@ -2481,13 +2398,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:4">
@@ -2495,13 +2412,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:4">
@@ -2509,13 +2426,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:4">
@@ -2523,13 +2440,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2537,13 +2454,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2551,13 +2468,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2594,53 +2511,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -2648,83 +2565,83 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26295" windowHeight="4335"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="任务表" sheetId="2" r:id="rId1"/>
@@ -170,22 +170,25 @@
     <t>无</t>
   </si>
   <si>
+    <t>刷机</t>
+  </si>
+  <si>
+    <t>CAMERA老化</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>02201S000016</t>
+  </si>
+  <si>
     <t>启动测试</t>
   </si>
   <si>
-    <t>CAMERA老化</t>
+    <t>GPU测试</t>
   </si>
   <si>
     <t>休眠</t>
-  </si>
-  <si>
-    <t>02201S000016</t>
-  </si>
-  <si>
-    <t>GPU测试</t>
-  </si>
-  <si>
-    <t>工作</t>
   </si>
   <si>
     <t>编号</t>
@@ -389,9 +392,6 @@
   </si>
   <si>
     <t>多线程读写测试</t>
-  </si>
-  <si>
-    <t>刷机</t>
   </si>
   <si>
     <t>启动测试启动监控</t>
@@ -1648,7 +1648,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1829,13 +1829,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="6:6">
@@ -1906,22 +1906,22 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:6">
@@ -1929,17 +1929,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:6">
@@ -1947,16 +1947,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>19</v>
@@ -1967,19 +1967,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
@@ -2087,16 +2087,16 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="24" customHeight="1" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -2523,7 +2523,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2546,7 +2546,7 @@
         <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2631,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:3">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
